--- a/AccountAnalysis.xlsx
+++ b/AccountAnalysis.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Account Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Advanced Account Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -38,18 +39,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
+        <fgColor rgb="009C9C9C"/>
+        <bgColor rgb="009C9C9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAF4EA"/>
-        <bgColor rgb="00EAF4EA"/>
+        <fgColor rgb="00f5f5f5"/>
+        <bgColor rgb="00f5f5f5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c3e8cb"/>
+        <bgColor rgb="00c3e8cb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e8baba"/>
+        <bgColor rgb="00e8baba"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -58,7 +71,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -67,11 +112,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="B2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,104 +504,1234 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Cash Info</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Open Positions</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Pie: Macro Meta Pie (ID: 3234819)</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Total Account Value</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="2" t="n">
-        <v>5085.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="6" t="n">
+        <v>5072.52</v>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>Avg. Price</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>FX P/L</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>Weight %</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>Performance %</t>
+        </is>
+      </c>
+      <c r="P3" s="8" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="Q3" s="9" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Cash</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="2" t="n">
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="6" t="n">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>EGLNl</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>49.27</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>56.81</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>119.47</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>EGLNl</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>1.1888</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>67.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Currently Invested</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="2" t="n">
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="6" t="n">
         <v>5368.28</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>PSNl</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>1080.61</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>1399.1</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>BEP</t>
+        </is>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>7.2343</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>163.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Blocked Amount</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>TWl</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>115.35</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>109.69</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>122.77</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>COPAPp</t>
+        </is>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>3.4875</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>129.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Cash in Pies</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="2" t="n">
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="6" t="n">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>BLNDl</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>344.38</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>394.7</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="K7" s="12" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>EWATm</t>
+        </is>
+      </c>
+      <c r="N7" s="13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>22.5351</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>Realised Return</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="2" t="n">
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="11" t="n">
         <v>195.19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Open Position P&amp;L</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>-287.78</v>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>BEP</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K8" s="12" t="n">
+        <v>-18.01</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>FLXIm</t>
+        </is>
+      </c>
+      <c r="N8" s="13" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="P8" s="13" t="n">
+        <v>6.0719</v>
+      </c>
+      <c r="Q8" s="12" t="n">
+        <v>238.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="15" t="inlineStr">
+        <is>
+          <t>Open Position P/L</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="12" t="n">
+        <v>-300.38</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>COPAPp</t>
+        </is>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>XLFSl</t>
+        </is>
+      </c>
+      <c r="N9" s="13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <v>0.1644</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>55.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="15" t="inlineStr">
+        <is>
+          <t>Total Fees Paid</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="12" t="n">
+        <v>5895.07</v>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>SVSl</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>981.78</v>
+      </c>
+      <c r="I10" s="13" t="n">
+        <v>980.1</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>WENTm</t>
+        </is>
+      </c>
+      <c r="N10" s="13" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <v>8.503399999999999</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>146.51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Total Transactions</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>EWATm</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>PAVEm</t>
+        </is>
+      </c>
+      <c r="N11" s="13" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>2.677</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Transaction Type</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>SUGAm</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>XLKSm</t>
+        </is>
+      </c>
+      <c r="N12" s="13" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O12" s="13" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>0.1433</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>88.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>SVFC</t>
+        </is>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>WTCHa</t>
+        </is>
+      </c>
+      <c r="N13" s="13" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>0.8258</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>131.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>XLFSl</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>394</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <v>-6.51</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>OD7Zd</t>
+        </is>
+      </c>
+      <c r="N14" s="13" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O14" s="13" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>9.3056</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>XMIDl</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>1125.5</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>1037</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>XMIDl</t>
+        </is>
+      </c>
+      <c r="N15" s="13" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>4.709</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>57.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>PAVEm</t>
+        </is>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="I16" s="13" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>AIGAPp</t>
+        </is>
+      </c>
+      <c r="N16" s="13" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>41.0425</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>213.65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>Withdrawal</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>-800</v>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>XLKSm</t>
+        </is>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>670.91</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <v>614.51</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>-8.08</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>ZPDHd</t>
+        </is>
+      </c>
+      <c r="N17" s="13" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <v>-13.68</v>
+      </c>
+      <c r="P17" s="13" t="n">
+        <v>2.8853</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>103.17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>125</v>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="J18" s="13" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <v>-27.05</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>SUGAm</t>
+        </is>
+      </c>
+      <c r="N18" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O18" s="13" t="n">
+        <v>-16.04</v>
+      </c>
+      <c r="P18" s="13" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="Q18" s="12" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>125</v>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>WENTm</t>
+        </is>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="I19" s="13" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="J19" s="13" t="n">
+        <v>-10.52</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="N19" s="13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O19" s="13" t="n">
+        <v>-26.32</v>
+      </c>
+      <c r="P19" s="13" t="n">
+        <v>0.1812</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="inlineStr">
+        <is>
+          <t>Withdrawal</t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H20" s="13" t="n">
+        <v>239.73</v>
+      </c>
+      <c r="I20" s="13" t="n">
+        <v>199.05</v>
+      </c>
+      <c r="J20" s="13" t="n">
+        <v>-11.12</v>
+      </c>
+      <c r="K20" s="12" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>E0Pd</t>
+        </is>
+      </c>
+      <c r="N20" s="13" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O20" s="13" t="n">
+        <v>-42.24</v>
+      </c>
+      <c r="P20" s="13" t="n">
+        <v>2.5784</v>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <v>101.12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>Withdrawal</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="n">
+        <v>-722.55</v>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>OD7Zd</t>
+        </is>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>-12.06</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="inlineStr">
+        <is>
+          <t>Total Pie Value:</t>
+        </is>
+      </c>
+      <c r="N21" s="16" t="n"/>
+      <c r="O21" s="16" t="n"/>
+      <c r="P21" s="16" t="n"/>
+      <c r="Q21" s="9" t="n">
+        <v>1800.91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>WTCHa</t>
+        </is>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>174.54</v>
+      </c>
+      <c r="I22" s="13" t="n">
+        <v>159.02</v>
+      </c>
+      <c r="J22" s="13" t="n">
+        <v>-12.81</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="inlineStr">
+        <is>
+          <t>Initial Investment:</t>
+        </is>
+      </c>
+      <c r="N22" s="16" t="n"/>
+      <c r="O22" s="16" t="n"/>
+      <c r="P22" s="16" t="n"/>
+      <c r="Q22" s="9" t="n">
+        <v>2003.63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>ZPDHd</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="J23" s="13" t="n">
+        <v>-16.35</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="inlineStr">
+        <is>
+          <t>Pie P/L:</t>
+        </is>
+      </c>
+      <c r="N23" s="16" t="n"/>
+      <c r="O23" s="16" t="n"/>
+      <c r="P23" s="16" t="n"/>
+      <c r="Q23" s="17" t="n">
+        <v>-202.71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>FLXIm</t>
+        </is>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="J24" s="13" t="n">
+        <v>-16.43</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="inlineStr">
+        <is>
+          <t>P/L %:</t>
+        </is>
+      </c>
+      <c r="N24" s="16" t="n"/>
+      <c r="O24" s="16" t="n"/>
+      <c r="P24" s="16" t="n"/>
+      <c r="Q24" s="17" t="n">
+        <v>-10.12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>AIGAPp</t>
+        </is>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>-31.11</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>VUAAl</t>
+        </is>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>112.48</v>
+      </c>
+      <c r="I26" s="13" t="n">
+        <v>115.26</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>-66.08</v>
+      </c>
+      <c r="K26" s="12" t="n">
+        <v>-82.52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>E0Pd</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H27" s="13" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="I27" s="13" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="J27" s="13" t="n">
+        <v>-73.95999999999999</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H28" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="I28" s="13" t="n">
+        <v>125.42</v>
+      </c>
+      <c r="J28" s="13" t="n">
+        <v>-197.42</v>
+      </c>
+      <c r="K28" s="12" t="n">
+        <v>-97.90000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="12">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/AccountAnalysis.xlsx
+++ b/AccountAnalysis.xlsx
@@ -10,7 +10,9 @@
     <sheet name="Account Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Advanced Account Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Advanced Account Info'!$B$4:$E$176</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,8 +31,16 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <sz val="12.5"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -61,8 +71,20 @@
         <bgColor rgb="00e8baba"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fff6a8"/>
+        <bgColor rgb="00fff6a8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e6f3ff"/>
+        <bgColor rgb="00e6f3ff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -108,11 +130,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -131,6 +183,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -205,6 +270,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6858000" cy="5486400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +651,7 @@
       </c>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="6" t="n">
-        <v>5072.52</v>
+        <v>5069.32</v>
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
@@ -636,10 +731,10 @@
         <v>49.27</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>56.81</v>
+        <v>56.85</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>119.47</v>
+        <v>120.1</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
@@ -653,13 +748,13 @@
         <v>3.75</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>15.3</v>
+        <v>15.38</v>
       </c>
       <c r="P4" s="10" t="n">
         <v>1.1888</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>67.53</v>
+        <v>67.58</v>
       </c>
     </row>
     <row r="5">
@@ -684,10 +779,10 @@
         <v>1080.61</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>1399.1</v>
+        <v>1405</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>41.49</v>
+        <v>42.31</v>
       </c>
       <c r="K5" s="12" t="n">
         <v>-2.3</v>
@@ -698,16 +793,16 @@
         </is>
       </c>
       <c r="N5" s="10" t="n">
-        <v>9.1</v>
+        <v>9.02</v>
       </c>
       <c r="O5" s="10" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" s="10" t="n">
         <v>7.2343</v>
       </c>
       <c r="Q5" s="11" t="n">
-        <v>163.92</v>
+        <v>162.33</v>
       </c>
     </row>
     <row r="6">
@@ -732,13 +827,13 @@
         <v>109.69</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>122.77</v>
+        <v>123.25</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>15.42</v>
+        <v>16.08</v>
       </c>
       <c r="K6" s="12" t="n">
-        <v>-2.3</v>
+        <v>-2.29</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
@@ -746,16 +841,16 @@
         </is>
       </c>
       <c r="N6" s="13" t="n">
-        <v>7.18</v>
+        <v>7.21</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>-0.66</v>
+        <v>-0.31</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>3.4875</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <v>129.39</v>
+        <v>129.84</v>
       </c>
     </row>
     <row r="7">
@@ -780,10 +875,10 @@
         <v>344.38</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>394.7</v>
+        <v>394.6</v>
       </c>
       <c r="J7" s="10" t="n">
-        <v>12.95</v>
+        <v>12.92</v>
       </c>
       <c r="K7" s="12" t="n">
         <v>-1.53</v>
@@ -794,16 +889,16 @@
         </is>
       </c>
       <c r="N7" s="13" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>-4.83</v>
+        <v>-5.45</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>22.5351</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>45.94</v>
+        <v>45.64</v>
       </c>
     </row>
     <row r="8">
@@ -828,13 +923,13 @@
         <v>22.76</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>26.25</v>
+        <v>26.03</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>3.81</v>
+        <v>2.22</v>
       </c>
       <c r="K8" s="12" t="n">
-        <v>-18.01</v>
+        <v>-18.2</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
@@ -845,13 +940,13 @@
         <v>13.22</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>-6.45</v>
+        <v>-6.55</v>
       </c>
       <c r="P8" s="13" t="n">
         <v>6.0719</v>
       </c>
       <c r="Q8" s="12" t="n">
-        <v>238.12</v>
+        <v>237.87</v>
       </c>
     </row>
     <row r="9">
@@ -862,7 +957,7 @@
       </c>
       <c r="C9" s="5" t="n"/>
       <c r="D9" s="12" t="n">
-        <v>-300.38</v>
+        <v>-303.58</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -876,42 +971,33 @@
         <v>37.35</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>37.1</v>
+        <v>37.23</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>-0.86</v>
+        <v>-0.41</v>
       </c>
       <c r="K9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>XLFSl</t>
+          <t>WENTm</t>
         </is>
       </c>
       <c r="N9" s="13" t="n">
-        <v>3.11</v>
+        <v>8.15</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>-6.64</v>
+        <v>-6.55</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>0.1644</v>
+        <v>8.503399999999999</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <v>55.92</v>
+        <v>146.75</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="15" t="inlineStr">
-        <is>
-          <t>Total Fees Paid</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="12" t="n">
-        <v>5895.07</v>
-      </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
           <t>SVSl</t>
@@ -924,30 +1010,30 @@
         <v>981.78</v>
       </c>
       <c r="I10" s="13" t="n">
-        <v>980.1</v>
+        <v>980</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>-1.71</v>
+        <v>-1.72</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>-1.54</v>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t>WENTm</t>
+          <t>XLFSl</t>
         </is>
       </c>
       <c r="N10" s="13" t="n">
-        <v>8.140000000000001</v>
+        <v>3.11</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>-6.7</v>
+        <v>-6.68</v>
       </c>
       <c r="P10" s="13" t="n">
-        <v>8.503399999999999</v>
+        <v>0.1644</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>146.51</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="11">
@@ -960,20 +1046,20 @@
       <c r="D11" s="3" t="n"/>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>EWATm</t>
+          <t>SUGAm</t>
         </is>
       </c>
       <c r="G11" s="13" t="n">
-        <v>22.54</v>
+        <v>1.39</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>2.14</v>
+        <v>11.54</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>2.04</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>-2.33</v>
+        <v>-2.44</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>0</v>
@@ -984,16 +1070,16 @@
         </is>
       </c>
       <c r="N11" s="13" t="n">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>-7.43</v>
+        <v>-7.34</v>
       </c>
       <c r="P11" s="13" t="n">
         <v>2.677</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>90.90000000000001</v>
+        <v>90.98999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1014,20 +1100,20 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>SUGAm</t>
+          <t>EWATm</t>
         </is>
       </c>
       <c r="G12" s="13" t="n">
-        <v>1.39</v>
+        <v>22.54</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>11.54</v>
+        <v>2.14</v>
       </c>
       <c r="I12" s="13" t="n">
-        <v>9.69</v>
+        <v>2.03</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>-2.57</v>
+        <v>-2.63</v>
       </c>
       <c r="K12" s="6" t="n">
         <v>0</v>
@@ -1038,16 +1124,16 @@
         </is>
       </c>
       <c r="N12" s="13" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>-8.4</v>
+        <v>-8.25</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>0.1433</v>
       </c>
       <c r="Q12" s="12" t="n">
-        <v>88.08</v>
+        <v>88.23</v>
       </c>
     </row>
     <row r="13">
@@ -1066,23 +1152,23 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>SVFC</t>
+          <t>XLFSl</t>
         </is>
       </c>
       <c r="G13" s="13" t="n">
-        <v>5.8</v>
+        <v>0.16</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>26.3</v>
+        <v>376.18</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>28.93</v>
+        <v>394.38</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>-3.83</v>
+        <v>-4</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>-17</v>
+        <v>-6.58</v>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
@@ -1090,16 +1176,16 @@
         </is>
       </c>
       <c r="N13" s="13" t="n">
-        <v>7.29</v>
+        <v>7.31</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>-8.890000000000001</v>
+        <v>-8.69</v>
       </c>
       <c r="P13" s="13" t="n">
         <v>0.8258</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>131.33</v>
+        <v>131.61</v>
       </c>
     </row>
     <row r="14">
@@ -1118,23 +1204,23 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>XLFSl</t>
+          <t>XMIDl</t>
         </is>
       </c>
       <c r="G14" s="13" t="n">
-        <v>0.16</v>
+        <v>4.71</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>376.18</v>
+        <v>1125.5</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>394</v>
+        <v>1038</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>-3.98</v>
+        <v>-5.99</v>
       </c>
       <c r="K14" s="12" t="n">
-        <v>-6.51</v>
+        <v>-1.15</v>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
@@ -1142,16 +1228,16 @@
         </is>
       </c>
       <c r="N14" s="13" t="n">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
       <c r="O14" s="13" t="n">
-        <v>-8.9</v>
+        <v>-8.69</v>
       </c>
       <c r="P14" s="13" t="n">
         <v>9.3056</v>
       </c>
       <c r="Q14" s="12" t="n">
-        <v>123.4</v>
+        <v>123.69</v>
       </c>
     </row>
     <row r="15">
@@ -1170,40 +1256,40 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
+          <t>PAVEm</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>-7.21</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
           <t>XMIDl</t>
         </is>
       </c>
-      <c r="G15" s="13" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>1125.5</v>
-      </c>
-      <c r="I15" s="13" t="n">
-        <v>1037</v>
-      </c>
-      <c r="J15" s="13" t="n">
-        <v>-6.05</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
-        <is>
-          <t>XMIDl</t>
-        </is>
-      </c>
       <c r="N15" s="13" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>-9.539999999999999</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="P15" s="13" t="n">
         <v>4.709</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>57.35</v>
+        <v>57.41</v>
       </c>
     </row>
     <row r="16">
@@ -1222,20 +1308,20 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PAVEm</t>
+          <t>XLKSm</t>
         </is>
       </c>
       <c r="G16" s="13" t="n">
-        <v>2.68</v>
+        <v>0.14</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>36.68</v>
+        <v>670.91</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>33.96</v>
+        <v>615.61</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>-7.3</v>
+        <v>-7.93</v>
       </c>
       <c r="K16" s="6" t="n">
         <v>0</v>
@@ -1246,16 +1332,16 @@
         </is>
       </c>
       <c r="N16" s="13" t="n">
-        <v>11.86</v>
+        <v>11.84</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>-12.7</v>
+        <v>-12.95</v>
       </c>
       <c r="P16" s="13" t="n">
         <v>41.0425</v>
       </c>
       <c r="Q16" s="12" t="n">
-        <v>213.65</v>
+        <v>213.03</v>
       </c>
     </row>
     <row r="17">
@@ -1274,23 +1360,23 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>XLKSm</t>
+          <t>SVFC</t>
         </is>
       </c>
       <c r="G17" s="13" t="n">
-        <v>0.14</v>
+        <v>5.8</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>670.91</v>
+        <v>26.3</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>614.51</v>
+        <v>28.1</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>-8.08</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
+        <v>-8.17</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>-17.17</v>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
@@ -1298,16 +1384,16 @@
         </is>
       </c>
       <c r="N17" s="13" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="O17" s="13" t="n">
-        <v>-13.68</v>
+        <v>-13.07</v>
       </c>
       <c r="P17" s="13" t="n">
         <v>2.8853</v>
       </c>
       <c r="Q17" s="12" t="n">
-        <v>103.17</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="18">
@@ -1339,10 +1425,10 @@
         <v>58.76</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>-8.949999999999999</v>
+        <v>-9.26</v>
       </c>
       <c r="K18" s="12" t="n">
-        <v>-27.05</v>
+        <v>-27.33</v>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
@@ -1353,13 +1439,13 @@
         <v>0.75</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>-16.04</v>
+        <v>-15.23</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>1.388</v>
       </c>
       <c r="Q18" s="12" t="n">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="19">
@@ -1378,23 +1464,23 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>WENTm</t>
+          <t>EXP</t>
         </is>
       </c>
       <c r="G19" s="13" t="n">
-        <v>8.5</v>
+        <v>0.18</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>18.47</v>
+        <v>239.73</v>
       </c>
       <c r="I19" s="13" t="n">
-        <v>17.23</v>
+        <v>207.79</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>-10.52</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>0</v>
+        <v>-9.789999999999999</v>
+      </c>
+      <c r="K19" s="12" t="n">
+        <v>-4.8</v>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
@@ -1402,16 +1488,16 @@
         </is>
       </c>
       <c r="N19" s="13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>-26.32</v>
+        <v>-23.17</v>
       </c>
       <c r="P19" s="13" t="n">
         <v>0.1812</v>
       </c>
       <c r="Q19" s="12" t="n">
-        <v>31.13</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="20">
@@ -1430,23 +1516,23 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>WENTm</t>
         </is>
       </c>
       <c r="G20" s="13" t="n">
-        <v>0.18</v>
+        <v>8.5</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>239.73</v>
+        <v>18.47</v>
       </c>
       <c r="I20" s="13" t="n">
-        <v>199.05</v>
+        <v>17.26</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>-11.12</v>
-      </c>
-      <c r="K20" s="12" t="n">
-        <v>-4.76</v>
+        <v>-10.28</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
@@ -1454,16 +1540,16 @@
         </is>
       </c>
       <c r="N20" s="13" t="n">
-        <v>5.61</v>
+        <v>5.51</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>-42.24</v>
+        <v>-43.4</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>2.5784</v>
       </c>
       <c r="Q20" s="12" t="n">
-        <v>101.12</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1492,10 +1578,10 @@
         <v>14.56</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>13.26</v>
+        <v>13.29</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>-12.06</v>
+        <v>-11.77</v>
       </c>
       <c r="K21" s="6" t="n">
         <v>0</v>
@@ -1509,7 +1595,7 @@
       <c r="O21" s="16" t="n"/>
       <c r="P21" s="16" t="n"/>
       <c r="Q21" s="9" t="n">
-        <v>1800.91</v>
+        <v>1799.91</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1611,10 @@
         <v>174.54</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>159.02</v>
+        <v>159.36</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>-12.81</v>
+        <v>-12.53</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -1558,10 +1644,10 @@
         <v>41.42</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>35.76</v>
+        <v>36.01</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>-16.35</v>
+        <v>-15.62</v>
       </c>
       <c r="K23" s="6" t="n">
         <v>0</v>
@@ -1575,7 +1661,7 @@
       <c r="O23" s="16" t="n"/>
       <c r="P23" s="16" t="n"/>
       <c r="Q23" s="17" t="n">
-        <v>-202.71</v>
+        <v>-203.72</v>
       </c>
     </row>
     <row r="24">
@@ -1591,10 +1677,10 @@
         <v>41.92</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>39.22</v>
+        <v>39.17</v>
       </c>
       <c r="J24" s="13" t="n">
-        <v>-16.43</v>
+        <v>-16.68</v>
       </c>
       <c r="K24" s="6" t="n">
         <v>0</v>
@@ -1608,7 +1694,7 @@
       <c r="O24" s="16" t="n"/>
       <c r="P24" s="16" t="n"/>
       <c r="Q24" s="17" t="n">
-        <v>-10.12</v>
+        <v>-10.17</v>
       </c>
     </row>
     <row r="25">
@@ -1624,10 +1710,10 @@
         <v>5.96</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>-31.11</v>
+        <v>-31.69</v>
       </c>
       <c r="K25" s="6" t="n">
         <v>0</v>
@@ -1646,13 +1732,13 @@
         <v>112.48</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>115.26</v>
+        <v>115.24</v>
       </c>
       <c r="J26" s="13" t="n">
-        <v>-66.08</v>
+        <v>-67.11</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>-82.52</v>
+        <v>-83.41</v>
       </c>
     </row>
     <row r="27">
@@ -1668,10 +1754,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>39.22</v>
+        <v>38.44</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>-73.95999999999999</v>
+        <v>-75.98</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>0</v>
@@ -1690,24 +1776,23 @@
         <v>141</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>125.42</v>
+        <v>125.81</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>-197.42</v>
+        <v>-196</v>
       </c>
       <c r="K28" s="12" t="n">
-        <v>-97.90000000000001</v>
+        <v>-99.09999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
@@ -1724,14 +1809,5584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>💡 Use Excel's filter buttons in the header row to search and filter transactions</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="n"/>
+      <c r="D2" s="19" t="n"/>
+      <c r="E2" s="19" t="n"/>
+      <c r="F2" s="19" t="n"/>
+      <c r="G2" s="19" t="n"/>
+      <c r="H2" s="20" t="n"/>
+      <c r="J2" s="21" t="inlineStr">
+        <is>
+          <t>Hold Time Statistics</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="22" t="inlineStr">
+        <is>
+          <t>Detailed Transaction History</t>
+        </is>
+      </c>
+      <c r="C3" s="23" t="n"/>
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="23" t="n"/>
+      <c r="G3" s="23" t="n"/>
+      <c r="H3" s="24" t="n"/>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Average Hold Time</t>
+        </is>
+      </c>
+      <c r="K3" s="25" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="L3" s="26" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Asset Name</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Order Type</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>Price/Unit</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>Total Value</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>Longest Held Unique Assets:</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>14.3003</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>135.97</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>1718.63</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="K5" s="25" t="n">
+        <v>118</v>
+      </c>
+      <c r="L5" s="26" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>BLND</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>British Land</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>397</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>72</v>
+      </c>
+      <c r="L6" s="26" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>Taylor Wimpey</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>1.3449</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>117.05</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="L7" s="26" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>SVS</t>
+        </is>
+      </c>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>Savills</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>965</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>PSN</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>Persimmon</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.1177</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>1338</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Fee Breakdown</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C10" s="16" t="inlineStr">
+        <is>
+          <t>XMID</t>
+        </is>
+      </c>
+      <c r="D10" s="16" t="inlineStr">
+        <is>
+          <t>Xtrackers MSCI Indonesia Swap (Acc)</t>
+        </is>
+      </c>
+      <c r="E10" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0.3035</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>Fee Type</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Energy Transition Metals</t>
+        </is>
+      </c>
+      <c r="E11" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>1.3701</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="J11" s="15" t="inlineStr">
+        <is>
+          <t>Currency Conversion</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L11" s="12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E12" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>58.58</v>
+      </c>
+      <c r="H12" s="11" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>Deposit Fee</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="L12" s="12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>FLXI</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>Franklin FTSE India (Acc)</t>
+        </is>
+      </c>
+      <c r="E13" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="J13" s="15" t="inlineStr">
+        <is>
+          <t>Stamp Duty Tax</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L13" s="12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>AIGAP</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Agriculture</t>
+        </is>
+      </c>
+      <c r="E14" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>24.5266</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>6.0677</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>148.82</v>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>Withholding Tax</t>
+        </is>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>9.6685</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>17.5674</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>205.72</v>
+      </c>
+      <c r="J15" s="30" t="inlineStr">
+        <is>
+          <t>TOTAL FEES</t>
+        </is>
+      </c>
+      <c r="K15" s="28" t="n">
+        <v>107.16</v>
+      </c>
+      <c r="L15" s="17" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E16" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>7.1916</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>126.55</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>875.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>131.37</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>875.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>2.1652</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>139.96</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>290.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>KKR &amp; Co</t>
+        </is>
+      </c>
+      <c r="E19" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>141</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>1000.06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E20" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>0.4371</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E21" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>0.1458</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>143.16</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E22" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>137.01</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E23" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0.1559</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>133.11</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E24" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>0.1578</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>130.99</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E25" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>0.1542</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>133.79</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>0.3109</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>132.46</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E27" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>0.1554</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>132.47</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E28" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>0.1599</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D29" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E29" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>125.88</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D30" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E30" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>121.93</v>
+      </c>
+      <c r="H30" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E31" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>116.97</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E32" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>115.28</v>
+      </c>
+      <c r="H32" s="12" t="n">
+        <v>973.02</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E33" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>119.94</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <v>78.43000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E34" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>119.935</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <v>922.63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="E35" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>3.9763</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>135.18</v>
+      </c>
+      <c r="H35" s="12" t="n">
+        <v>515.22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="E36" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>1.7237</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>135.18</v>
+      </c>
+      <c r="H36" s="12" t="n">
+        <v>223.35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E37" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>119.98</v>
+      </c>
+      <c r="H37" s="11" t="n">
+        <v>504.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C38" s="16" t="inlineStr">
+        <is>
+          <t>DJT</t>
+        </is>
+      </c>
+      <c r="D38" s="16" t="inlineStr">
+        <is>
+          <t>Trump Media &amp; Technology Group</t>
+        </is>
+      </c>
+      <c r="E38" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="H38" s="12" t="n">
+        <v>194.91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C39" s="16" t="inlineStr">
+        <is>
+          <t>DJT</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>Trump Media &amp; Technology Group</t>
+        </is>
+      </c>
+      <c r="E39" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="H39" s="11" t="n">
+        <v>202.57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C40" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="D40" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="E40" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>134.85</v>
+      </c>
+      <c r="H40" s="11" t="n">
+        <v>92.56999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="C41" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="D41" s="16" t="inlineStr">
+        <is>
+          <t>XPO</t>
+        </is>
+      </c>
+      <c r="E41" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="H41" s="11" t="n">
+        <v>660.66</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C42" s="16" t="inlineStr">
+        <is>
+          <t>BEP</t>
+        </is>
+      </c>
+      <c r="D42" s="16" t="inlineStr">
+        <is>
+          <t>Brookfield Renewable Partners</t>
+        </is>
+      </c>
+      <c r="E42" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>5.8862</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C43" s="16" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="D43" s="16" t="inlineStr">
+        <is>
+          <t>Eagle Materials</t>
+        </is>
+      </c>
+      <c r="E43" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>0.1487</v>
+      </c>
+      <c r="G43" s="10" t="n">
+        <v>237.22</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C44" s="16" t="inlineStr">
+        <is>
+          <t>SYM</t>
+        </is>
+      </c>
+      <c r="D44" s="16" t="inlineStr">
+        <is>
+          <t>Symbotic</t>
+        </is>
+      </c>
+      <c r="E44" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <v>148.89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C45" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D45" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E45" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G45" s="13" t="n">
+        <v>137.37</v>
+      </c>
+      <c r="H45" s="12" t="n">
+        <v>227.24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C46" s="16" t="inlineStr">
+        <is>
+          <t>ABBNY</t>
+        </is>
+      </c>
+      <c r="D46" s="16" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="E46" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>3.2498</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="H46" s="11" t="n">
+        <v>171.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="C47" s="16" t="inlineStr">
+        <is>
+          <t>ABBNY</t>
+        </is>
+      </c>
+      <c r="D47" s="16" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="E47" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>1.4002</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>54.26</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C48" s="16" t="inlineStr">
+        <is>
+          <t>VUAA</t>
+        </is>
+      </c>
+      <c r="D48" s="16" t="inlineStr">
+        <is>
+          <t>Vanguard S&amp;P 500 (Acc)</t>
+        </is>
+      </c>
+      <c r="E48" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>112.48</v>
+      </c>
+      <c r="H48" s="11" t="n">
+        <v>748.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C49" s="16" t="inlineStr">
+        <is>
+          <t>XMID</t>
+        </is>
+      </c>
+      <c r="D49" s="16" t="inlineStr">
+        <is>
+          <t>Xtrackers MSCI Indonesia Swap (Acc)</t>
+        </is>
+      </c>
+      <c r="E49" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>3.5838</v>
+      </c>
+      <c r="G49" s="10" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C50" s="16" t="inlineStr">
+        <is>
+          <t>SVS</t>
+        </is>
+      </c>
+      <c r="D50" s="16" t="inlineStr">
+        <is>
+          <t>Savills</t>
+        </is>
+      </c>
+      <c r="E50" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>7.8054</v>
+      </c>
+      <c r="G50" s="10" t="n">
+        <v>982</v>
+      </c>
+      <c r="H50" s="11" t="n">
+        <v>92.04000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C51" s="16" t="inlineStr">
+        <is>
+          <t>SVS</t>
+        </is>
+      </c>
+      <c r="D51" s="16" t="inlineStr">
+        <is>
+          <t>Savills</t>
+        </is>
+      </c>
+      <c r="E51" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="G51" s="10" t="n">
+        <v>982</v>
+      </c>
+      <c r="H51" s="11" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C52" s="16" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="D52" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Energy Transition Metals</t>
+        </is>
+      </c>
+      <c r="E52" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>5.7762</v>
+      </c>
+      <c r="G52" s="10" t="n">
+        <v>18.512</v>
+      </c>
+      <c r="H52" s="11" t="n">
+        <v>106.93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C53" s="16" t="inlineStr">
+        <is>
+          <t>FLXI</t>
+        </is>
+      </c>
+      <c r="D53" s="16" t="inlineStr">
+        <is>
+          <t>Franklin FTSE India (Acc)</t>
+        </is>
+      </c>
+      <c r="E53" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>4.6534</v>
+      </c>
+      <c r="G53" s="10" t="n">
+        <v>42.055</v>
+      </c>
+      <c r="H53" s="11" t="n">
+        <v>195.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C54" s="16" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="D54" s="16" t="inlineStr">
+        <is>
+          <t>Taylor Wimpey</t>
+        </is>
+      </c>
+      <c r="E54" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>114.0035</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H54" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C55" s="16" t="inlineStr">
+        <is>
+          <t>PSN</t>
+        </is>
+      </c>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>Persimmon</t>
+        </is>
+      </c>
+      <c r="E55" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>9.2392</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>1078</v>
+      </c>
+      <c r="H55" s="11" t="n">
+        <v>119.56</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C56" s="16" t="inlineStr">
+        <is>
+          <t>PSN</t>
+        </is>
+      </c>
+      <c r="D56" s="16" t="inlineStr">
+        <is>
+          <t>Persimmon</t>
+        </is>
+      </c>
+      <c r="E56" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>2.3517</v>
+      </c>
+      <c r="G56" s="10" t="n">
+        <v>1078</v>
+      </c>
+      <c r="H56" s="11" t="n">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C57" s="16" t="inlineStr">
+        <is>
+          <t>BLND</t>
+        </is>
+      </c>
+      <c r="D57" s="16" t="inlineStr">
+        <is>
+          <t>British Land</t>
+        </is>
+      </c>
+      <c r="E57" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>24.2288</v>
+      </c>
+      <c r="G57" s="10" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="H57" s="11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C58" s="16" t="inlineStr">
+        <is>
+          <t>EWAT</t>
+        </is>
+      </c>
+      <c r="D58" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Wheat - EUR Daily Hedged</t>
+        </is>
+      </c>
+      <c r="E58" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>2.4612</v>
+      </c>
+      <c r="G58" s="10" t="n">
+        <v>2.129</v>
+      </c>
+      <c r="H58" s="11" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C59" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D59" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E59" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>0.7923</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>37.845</v>
+      </c>
+      <c r="H59" s="11" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C60" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D60" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E60" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="G60" s="10" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="H60" s="11" t="n">
+        <v>75.43000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C61" s="16" t="inlineStr">
+        <is>
+          <t>ZPDH</t>
+        </is>
+      </c>
+      <c r="D61" s="16" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P U.S. Health Care Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E61" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>2.3344</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H61" s="11" t="n">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C62" s="16" t="inlineStr">
+        <is>
+          <t>XLFS</t>
+        </is>
+      </c>
+      <c r="D62" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Financials S&amp;P US Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E62" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="H62" s="11" t="n">
+        <v>48.81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C63" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D63" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E63" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>1.9094</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>68.47</v>
+      </c>
+      <c r="H63" s="11" t="n">
+        <v>130.74</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C64" s="16" t="inlineStr">
+        <is>
+          <t>SUGA</t>
+        </is>
+      </c>
+      <c r="D64" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Sugar</t>
+        </is>
+      </c>
+      <c r="E64" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>1.1306</v>
+      </c>
+      <c r="G64" s="10" t="n">
+        <v>11.516</v>
+      </c>
+      <c r="H64" s="11" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C65" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D65" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E65" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>1.6126</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>14.614</v>
+      </c>
+      <c r="H65" s="11" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C66" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D66" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E66" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>5.9325</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>14.615</v>
+      </c>
+      <c r="H66" s="11" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C67" s="16" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
+      <c r="D67" s="16" t="inlineStr">
+        <is>
+          <t>Global X US Infrastructure Development (Acc)</t>
+        </is>
+      </c>
+      <c r="E67" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>2.1767</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>36.605</v>
+      </c>
+      <c r="H67" s="11" t="n">
+        <v>79.68000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C68" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D68" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E68" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="G68" s="10" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H68" s="11" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C69" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D69" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E69" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>0.8146</v>
+      </c>
+      <c r="G69" s="10" t="n">
+        <v>17.322</v>
+      </c>
+      <c r="H69" s="11" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C70" s="16" t="inlineStr">
+        <is>
+          <t>XLKS</t>
+        </is>
+      </c>
+      <c r="D70" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Technology S&amp;P US Select Sector</t>
+        </is>
+      </c>
+      <c r="E70" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="G70" s="10" t="n">
+        <v>669.73</v>
+      </c>
+      <c r="H70" s="11" t="n">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C71" s="16" t="inlineStr">
+        <is>
+          <t>WTCH</t>
+        </is>
+      </c>
+      <c r="D71" s="16" t="inlineStr">
+        <is>
+          <t>SPDR MSCI World Technology (Acc)</t>
+        </is>
+      </c>
+      <c r="E71" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="G71" s="10" t="n">
+        <v>174.34</v>
+      </c>
+      <c r="H71" s="11" t="n">
+        <v>117.18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C72" s="16" t="inlineStr">
+        <is>
+          <t>EWAT</t>
+        </is>
+      </c>
+      <c r="D72" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Wheat - EUR Daily Hedged</t>
+        </is>
+      </c>
+      <c r="E72" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>2.1295</v>
+      </c>
+      <c r="H72" s="11" t="n">
+        <v>34.07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C73" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D73" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E73" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="G73" s="10" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="H73" s="11" t="n">
+        <v>48.53</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C74" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D74" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E74" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G74" s="10" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H74" s="11" t="n">
+        <v>144.83</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C75" s="16" t="inlineStr">
+        <is>
+          <t>AIGAP</t>
+        </is>
+      </c>
+      <c r="D75" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Agriculture</t>
+        </is>
+      </c>
+      <c r="E75" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>13.4461</v>
+      </c>
+      <c r="G75" s="10" t="n">
+        <v>5.8121</v>
+      </c>
+      <c r="H75" s="11" t="n">
+        <v>78.15000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="C76" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D76" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E76" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G76" s="10" t="n">
+        <v>50.45</v>
+      </c>
+      <c r="H76" s="11" t="n">
+        <v>158.92</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="C77" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D77" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E77" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G77" s="13" t="n">
+        <v>149.89</v>
+      </c>
+      <c r="H77" s="12" t="n">
+        <v>3315.13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C78" s="16" t="inlineStr">
+        <is>
+          <t>BEP</t>
+        </is>
+      </c>
+      <c r="D78" s="16" t="inlineStr">
+        <is>
+          <t>Brookfield Renewable Partners</t>
+        </is>
+      </c>
+      <c r="E78" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G78" s="10" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="H78" s="11" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C79" s="16" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="D79" s="16" t="inlineStr">
+        <is>
+          <t>Eagle Materials</t>
+        </is>
+      </c>
+      <c r="E79" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="G79" s="10" t="n">
+        <v>251.03</v>
+      </c>
+      <c r="H79" s="11" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C80" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D80" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E80" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>0.3949</v>
+      </c>
+      <c r="G80" s="10" t="n">
+        <v>14.316</v>
+      </c>
+      <c r="H80" s="11" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C81" s="16" t="inlineStr">
+        <is>
+          <t>EWAT</t>
+        </is>
+      </c>
+      <c r="D81" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Wheat - EUR Daily Hedged</t>
+        </is>
+      </c>
+      <c r="E81" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1.3387</v>
+      </c>
+      <c r="G81" s="10" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="H81" s="11" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C82" s="16" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="D82" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Energy Transition Metals</t>
+        </is>
+      </c>
+      <c r="E82" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>0.4363</v>
+      </c>
+      <c r="G82" s="10" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H82" s="11" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C83" s="16" t="inlineStr">
+        <is>
+          <t>ZPDH</t>
+        </is>
+      </c>
+      <c r="D83" s="16" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P U.S. Health Care Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E83" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>0.1829</v>
+      </c>
+      <c r="G83" s="10" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="H83" s="11" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C84" s="16" t="inlineStr">
+        <is>
+          <t>FLXI</t>
+        </is>
+      </c>
+      <c r="D84" s="16" t="inlineStr">
+        <is>
+          <t>Franklin FTSE India (Acc)</t>
+        </is>
+      </c>
+      <c r="E84" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="G84" s="10" t="n">
+        <v>42.975</v>
+      </c>
+      <c r="H84" s="11" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C85" s="16" t="inlineStr">
+        <is>
+          <t>WTCH</t>
+        </is>
+      </c>
+      <c r="D85" s="16" t="inlineStr">
+        <is>
+          <t>SPDR MSCI World Technology (Acc)</t>
+        </is>
+      </c>
+      <c r="E85" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="G85" s="10" t="n">
+        <v>173.78</v>
+      </c>
+      <c r="H85" s="11" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C86" s="16" t="inlineStr">
+        <is>
+          <t>XLKS</t>
+        </is>
+      </c>
+      <c r="D86" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Technology S&amp;P US Select Sector</t>
+        </is>
+      </c>
+      <c r="E86" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G86" s="10" t="n">
+        <v>669.51</v>
+      </c>
+      <c r="H86" s="11" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C87" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D87" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E87" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>0.1817</v>
+      </c>
+      <c r="G87" s="10" t="n">
+        <v>14.344</v>
+      </c>
+      <c r="H87" s="11" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>SUGA</t>
+        </is>
+      </c>
+      <c r="D88" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Sugar</t>
+        </is>
+      </c>
+      <c r="E88" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>0.0859</v>
+      </c>
+      <c r="G88" s="10" t="n">
+        <v>11.644</v>
+      </c>
+      <c r="H88" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C89" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D89" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E89" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="G89" s="10" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="H89" s="11" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C90" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D90" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E90" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>0.2411</v>
+      </c>
+      <c r="G90" s="10" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="H90" s="11" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C91" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D91" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E91" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>0.2833</v>
+      </c>
+      <c r="G91" s="10" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="H91" s="11" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C92" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D92" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E92" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="G92" s="10" t="n">
+        <v>16.992</v>
+      </c>
+      <c r="H92" s="11" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C93" s="16" t="inlineStr">
+        <is>
+          <t>XMID</t>
+        </is>
+      </c>
+      <c r="D93" s="16" t="inlineStr">
+        <is>
+          <t>Xtrackers MSCI Indonesia Swap (Acc)</t>
+        </is>
+      </c>
+      <c r="E93" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>0.2709</v>
+      </c>
+      <c r="G93" s="10" t="n">
+        <v>1135</v>
+      </c>
+      <c r="H93" s="11" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C94" s="16" t="inlineStr">
+        <is>
+          <t>AIGAP</t>
+        </is>
+      </c>
+      <c r="D94" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Agriculture</t>
+        </is>
+      </c>
+      <c r="E94" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>1.0009</v>
+      </c>
+      <c r="G94" s="10" t="n">
+        <v>5.8648</v>
+      </c>
+      <c r="H94" s="11" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C95" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D95" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E95" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="G95" s="10" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="H95" s="11" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C96" s="16" t="inlineStr">
+        <is>
+          <t>XLFS</t>
+        </is>
+      </c>
+      <c r="D96" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Financials S&amp;P US Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E96" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="G96" s="10" t="n">
+        <v>376.91</v>
+      </c>
+      <c r="H96" s="11" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="C97" s="16" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
+      <c r="D97" s="16" t="inlineStr">
+        <is>
+          <t>Global X US Infrastructure Development (Acc)</t>
+        </is>
+      </c>
+      <c r="E97" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="G97" s="10" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="H97" s="11" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C98" s="16" t="inlineStr">
+        <is>
+          <t>SUGA</t>
+        </is>
+      </c>
+      <c r="D98" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Sugar</t>
+        </is>
+      </c>
+      <c r="E98" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>0.0868</v>
+      </c>
+      <c r="G98" s="10" t="n">
+        <v>11.524</v>
+      </c>
+      <c r="H98" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C99" s="16" t="inlineStr">
+        <is>
+          <t>EWAT</t>
+        </is>
+      </c>
+      <c r="D99" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Wheat - EUR Daily Hedged</t>
+        </is>
+      </c>
+      <c r="E99" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="G99" s="10" t="n">
+        <v>2.214</v>
+      </c>
+      <c r="H99" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C100" s="16" t="inlineStr">
+        <is>
+          <t>AIGAP</t>
+        </is>
+      </c>
+      <c r="D100" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Agriculture</t>
+        </is>
+      </c>
+      <c r="E100" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>1.0142</v>
+      </c>
+      <c r="G100" s="10" t="n">
+        <v>5.7977</v>
+      </c>
+      <c r="H100" s="11" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C101" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D101" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E101" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="G101" s="10" t="n">
+        <v>14.372</v>
+      </c>
+      <c r="H101" s="11" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C102" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D102" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E102" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>0.1547</v>
+      </c>
+      <c r="G102" s="10" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="H102" s="11" t="n">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C103" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D103" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E103" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="G103" s="10" t="n">
+        <v>35.775</v>
+      </c>
+      <c r="H103" s="11" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C104" s="16" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
+      <c r="D104" s="16" t="inlineStr">
+        <is>
+          <t>Global X US Infrastructure Development (Acc)</t>
+        </is>
+      </c>
+      <c r="E104" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="G104" s="10" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="H104" s="11" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C105" s="16" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="D105" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Energy Transition Metals</t>
+        </is>
+      </c>
+      <c r="E105" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F105" s="10" t="n">
+        <v>0.4636</v>
+      </c>
+      <c r="G105" s="10" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="H105" s="11" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C106" s="16" t="inlineStr">
+        <is>
+          <t>XLKS</t>
+        </is>
+      </c>
+      <c r="D106" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Technology S&amp;P US Select Sector</t>
+        </is>
+      </c>
+      <c r="E106" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="G106" s="10" t="n">
+        <v>681.84</v>
+      </c>
+      <c r="H106" s="11" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C107" s="16" t="inlineStr">
+        <is>
+          <t>WTCH</t>
+        </is>
+      </c>
+      <c r="D107" s="16" t="inlineStr">
+        <is>
+          <t>SPDR MSCI World Technology (Acc)</t>
+        </is>
+      </c>
+      <c r="E107" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F107" s="10" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="G107" s="10" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="H107" s="11" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C108" s="16" t="inlineStr">
+        <is>
+          <t>ZPDH</t>
+        </is>
+      </c>
+      <c r="D108" s="16" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P U.S. Health Care Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E108" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="G108" s="10" t="n">
+        <v>40.895</v>
+      </c>
+      <c r="H108" s="11" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C109" s="16" t="inlineStr">
+        <is>
+          <t>FLXI</t>
+        </is>
+      </c>
+      <c r="D109" s="16" t="inlineStr">
+        <is>
+          <t>Franklin FTSE India (Acc)</t>
+        </is>
+      </c>
+      <c r="E109" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F109" s="10" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="G109" s="10" t="n">
+        <v>42.325</v>
+      </c>
+      <c r="H109" s="11" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C110" s="16" t="inlineStr">
+        <is>
+          <t>XMID</t>
+        </is>
+      </c>
+      <c r="D110" s="16" t="inlineStr">
+        <is>
+          <t>Xtrackers MSCI Indonesia Swap (Acc)</t>
+        </is>
+      </c>
+      <c r="E110" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="G110" s="10" t="n">
+        <v>1133</v>
+      </c>
+      <c r="H110" s="11" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C111" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D111" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E111" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F111" s="10" t="n">
+        <v>0.6002999999999999</v>
+      </c>
+      <c r="G111" s="10" t="n">
+        <v>17.328</v>
+      </c>
+      <c r="H111" s="11" t="n">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C112" s="16" t="inlineStr">
+        <is>
+          <t>XLFS</t>
+        </is>
+      </c>
+      <c r="D112" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Financials S&amp;P US Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E112" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G112" s="10" t="n">
+        <v>381.58</v>
+      </c>
+      <c r="H112" s="11" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="C113" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D113" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E113" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F113" s="10" t="n">
+        <v>0.0761</v>
+      </c>
+      <c r="G113" s="10" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="H113" s="11" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="C114" s="16" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="D114" s="16" t="inlineStr">
+        <is>
+          <t>Eagle Materials</t>
+        </is>
+      </c>
+      <c r="E114" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="G114" s="10" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="H114" s="11" t="n">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="C115" s="16" t="inlineStr">
+        <is>
+          <t>BEP</t>
+        </is>
+      </c>
+      <c r="D115" s="16" t="inlineStr">
+        <is>
+          <t>Brookfield Renewable Partners</t>
+        </is>
+      </c>
+      <c r="E115" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>0.8882</v>
+      </c>
+      <c r="G115" s="10" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="H115" s="11" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C116" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D116" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E116" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>0.0284</v>
+      </c>
+      <c r="G116" s="13" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="H116" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C117" s="16" t="inlineStr">
+        <is>
+          <t>ZPDH</t>
+        </is>
+      </c>
+      <c r="D117" s="16" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P U.S. Health Care Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E117" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="G117" s="13" t="n">
+        <v>40.125</v>
+      </c>
+      <c r="H117" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C118" s="16" t="inlineStr">
+        <is>
+          <t>XLKS</t>
+        </is>
+      </c>
+      <c r="D118" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Technology S&amp;P US Select Sector</t>
+        </is>
+      </c>
+      <c r="E118" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="G118" s="13" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="H118" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C119" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D119" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E119" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="G119" s="13" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="H119" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="C120" s="16" t="inlineStr">
+        <is>
+          <t>XLFS</t>
+        </is>
+      </c>
+      <c r="D120" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Financials S&amp;P US Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E120" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="G120" s="13" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="H120" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C121" s="16" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="D121" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Energy Transition Metals</t>
+        </is>
+      </c>
+      <c r="E121" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
+        <v>0.4571</v>
+      </c>
+      <c r="G121" s="10" t="n">
+        <v>18.048</v>
+      </c>
+      <c r="H121" s="11" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C122" s="16" t="inlineStr">
+        <is>
+          <t>E0P</t>
+        </is>
+      </c>
+      <c r="D122" s="16" t="inlineStr">
+        <is>
+          <t>Enphase Energy</t>
+        </is>
+      </c>
+      <c r="E122" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>0.1423</v>
+      </c>
+      <c r="G122" s="10" t="n">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="H122" s="11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C123" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D123" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E123" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="n">
+        <v>1.0606</v>
+      </c>
+      <c r="G123" s="10" t="n">
+        <v>49.03</v>
+      </c>
+      <c r="H123" s="11" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C124" s="16" t="inlineStr">
+        <is>
+          <t>OD7Z</t>
+        </is>
+      </c>
+      <c r="D124" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Industrial Metals</t>
+        </is>
+      </c>
+      <c r="E124" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="G124" s="10" t="n">
+        <v>14.229</v>
+      </c>
+      <c r="H124" s="11" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C125" s="16" t="inlineStr">
+        <is>
+          <t>EWAT</t>
+        </is>
+      </c>
+      <c r="D125" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Wheat - EUR Daily Hedged</t>
+        </is>
+      </c>
+      <c r="E125" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="n">
+        <v>1.3802</v>
+      </c>
+      <c r="G125" s="10" t="n">
+        <v>2.1735</v>
+      </c>
+      <c r="H125" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C126" s="16" t="inlineStr">
+        <is>
+          <t>AIGAP</t>
+        </is>
+      </c>
+      <c r="D126" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Agriculture</t>
+        </is>
+      </c>
+      <c r="E126" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1.0549</v>
+      </c>
+      <c r="G126" s="10" t="n">
+        <v>5.6878</v>
+      </c>
+      <c r="H126" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C127" s="16" t="inlineStr">
+        <is>
+          <t>ZPDH</t>
+        </is>
+      </c>
+      <c r="D127" s="16" t="inlineStr">
+        <is>
+          <t>SPDR S&amp;P U.S. Health Care Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E127" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
+        <v>0.1861</v>
+      </c>
+      <c r="G127" s="10" t="n">
+        <v>40.305</v>
+      </c>
+      <c r="H127" s="11" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C128" s="16" t="inlineStr">
+        <is>
+          <t>WTCH</t>
+        </is>
+      </c>
+      <c r="D128" s="16" t="inlineStr">
+        <is>
+          <t>SPDR MSCI World Technology (Acc)</t>
+        </is>
+      </c>
+      <c r="E128" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="G128" s="10" t="n">
+        <v>175.66</v>
+      </c>
+      <c r="H128" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C129" s="16" t="inlineStr">
+        <is>
+          <t>XLKS</t>
+        </is>
+      </c>
+      <c r="D129" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Technology S&amp;P US Select Sector</t>
+        </is>
+      </c>
+      <c r="E129" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="G129" s="10" t="n">
+        <v>675.77</v>
+      </c>
+      <c r="H129" s="11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C130" s="16" t="inlineStr">
+        <is>
+          <t>FLXI</t>
+        </is>
+      </c>
+      <c r="D130" s="16" t="inlineStr">
+        <is>
+          <t>Franklin FTSE India (Acc)</t>
+        </is>
+      </c>
+      <c r="E130" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="G130" s="10" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="H130" s="11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C131" s="16" t="inlineStr">
+        <is>
+          <t>XLFS</t>
+        </is>
+      </c>
+      <c r="D131" s="16" t="inlineStr">
+        <is>
+          <t>Invesco Financials S&amp;P US Select Sector (Acc)</t>
+        </is>
+      </c>
+      <c r="E131" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="G131" s="10" t="n">
+        <v>379.28</v>
+      </c>
+      <c r="H131" s="11" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C132" s="16" t="inlineStr">
+        <is>
+          <t>SUGA</t>
+        </is>
+      </c>
+      <c r="D132" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Sugar</t>
+        </is>
+      </c>
+      <c r="E132" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="G132" s="10" t="n">
+        <v>11.794</v>
+      </c>
+      <c r="H132" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C133" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D133" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E133" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="G133" s="10" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="H133" s="11" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C134" s="16" t="inlineStr">
+        <is>
+          <t>PAVE</t>
+        </is>
+      </c>
+      <c r="D134" s="16" t="inlineStr">
+        <is>
+          <t>Global X US Infrastructure Development (Acc)</t>
+        </is>
+      </c>
+      <c r="E134" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="G134" s="10" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="H134" s="11" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C135" s="16" t="inlineStr">
+        <is>
+          <t>XMID</t>
+        </is>
+      </c>
+      <c r="D135" s="16" t="inlineStr">
+        <is>
+          <t>Xtrackers MSCI Indonesia Swap (Acc)</t>
+        </is>
+      </c>
+      <c r="E135" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>0.2753</v>
+      </c>
+      <c r="G135" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="H135" s="11" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C136" s="16" t="inlineStr">
+        <is>
+          <t>COPAP</t>
+        </is>
+      </c>
+      <c r="D136" s="16" t="inlineStr">
+        <is>
+          <t>WisdomTree Copper</t>
+        </is>
+      </c>
+      <c r="E136" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>0.2334</v>
+      </c>
+      <c r="G136" s="10" t="n">
+        <v>35.35</v>
+      </c>
+      <c r="H136" s="11" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="C137" s="16" t="inlineStr">
+        <is>
+          <t>LCUS</t>
+        </is>
+      </c>
+      <c r="D137" s="16" t="inlineStr">
+        <is>
+          <t>Lyxor Core US Equity DR (Dist)</t>
+        </is>
+      </c>
+      <c r="E137" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="G137" s="10" t="n">
+        <v>17.188</v>
+      </c>
+      <c r="H137" s="11" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="C138" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D138" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E138" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G138" s="10" t="n">
+        <v>129.92</v>
+      </c>
+      <c r="H138" s="11" t="n">
+        <v>954.29</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="C139" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D139" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E139" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="G139" s="10" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="H139" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C140" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D140" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E140" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="G140" s="10" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="H140" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="C141" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D141" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E141" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="G141" s="10" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="H141" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="C142" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D142" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E142" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>0.6109</v>
+      </c>
+      <c r="G142" s="10" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="H142" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C143" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D143" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E143" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G143" s="10" t="n">
+        <v>139.02</v>
+      </c>
+      <c r="H143" s="11" t="n">
+        <v>987.14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C144" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D144" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E144" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="G144" s="10" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="H144" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C145" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D145" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E145" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>0.6153</v>
+      </c>
+      <c r="G145" s="10" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="H145" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="C146" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D146" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E146" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>0.6149</v>
+      </c>
+      <c r="G146" s="10" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="H146" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C147" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D147" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E147" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G147" s="10" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="H147" s="11" t="n">
+        <v>1000.02</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C148" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D148" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E148" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="G148" s="10" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="H148" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C149" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D149" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E149" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>5.3648</v>
+      </c>
+      <c r="G149" s="10" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="H149" s="11" t="n">
+        <v>260.08</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="C150" s="16" t="inlineStr">
+        <is>
+          <t>EGLN</t>
+        </is>
+      </c>
+      <c r="D150" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E150" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>0.2045</v>
+      </c>
+      <c r="G150" s="10" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="H150" s="11" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="C151" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D151" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E151" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>7.2815</v>
+      </c>
+      <c r="G151" s="10" t="n">
+        <v>145.05</v>
+      </c>
+      <c r="H151" s="11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C152" s="16" t="inlineStr">
+        <is>
+          <t>BZUN</t>
+        </is>
+      </c>
+      <c r="D152" s="16" t="inlineStr">
+        <is>
+          <t>Baozun</t>
+        </is>
+      </c>
+      <c r="E152" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="G152" s="13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H152" s="12" t="n">
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C153" s="16" t="inlineStr">
+        <is>
+          <t>BZUN</t>
+        </is>
+      </c>
+      <c r="D153" s="16" t="inlineStr">
+        <is>
+          <t>Baozun</t>
+        </is>
+      </c>
+      <c r="E153" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>91.17</v>
+      </c>
+      <c r="G153" s="13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H153" s="12" t="n">
+        <v>236.13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="C154" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D154" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E154" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F154" s="13" t="n">
+        <v>26.3077</v>
+      </c>
+      <c r="G154" s="13" t="n">
+        <v>139.16</v>
+      </c>
+      <c r="H154" s="12" t="n">
+        <v>3485.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C155" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D155" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E155" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F155" s="13" t="n">
+        <v>1.3382</v>
+      </c>
+      <c r="G155" s="13" t="n">
+        <v>310.09</v>
+      </c>
+      <c r="H155" s="12" t="n">
+        <v>392.66</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C156" s="16" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="D156" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E156" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F156" s="13" t="n">
+        <v>9.559699999999999</v>
+      </c>
+      <c r="G156" s="13" t="n">
+        <v>4074</v>
+      </c>
+      <c r="H156" s="12" t="n">
+        <v>467.21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C157" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D157" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E157" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F157" s="13" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="G157" s="13" t="n">
+        <v>311.7</v>
+      </c>
+      <c r="H157" s="12" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C158" s="16" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="D158" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E158" s="28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F158" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="G158" s="13" t="n">
+        <v>4077</v>
+      </c>
+      <c r="H158" s="12" t="n">
+        <v>3033.92</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="C159" s="16" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="D159" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E159" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>61.1408</v>
+      </c>
+      <c r="G159" s="10" t="n">
+        <v>4075</v>
+      </c>
+      <c r="H159" s="11" t="n">
+        <v>3000.08</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="C160" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D160" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E160" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F160" s="10" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="G160" s="10" t="n">
+        <v>308</v>
+      </c>
+      <c r="H160" s="11" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C161" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D161" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E161" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F161" s="10" t="n">
+        <v>1.4017</v>
+      </c>
+      <c r="G161" s="10" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="H161" s="11" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C162" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D162" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E162" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G162" s="10" t="n">
+        <v>145.33</v>
+      </c>
+      <c r="H162" s="11" t="n">
+        <v>152.3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C163" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D163" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E163" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F163" s="10" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G163" s="10" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="H163" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C164" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D164" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E164" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1.8218</v>
+      </c>
+      <c r="G164" s="10" t="n">
+        <v>144.35</v>
+      </c>
+      <c r="H164" s="11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C165" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D165" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E165" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F165" s="10" t="n">
+        <v>3.6313</v>
+      </c>
+      <c r="G165" s="10" t="n">
+        <v>144.93</v>
+      </c>
+      <c r="H165" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C166" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D166" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E166" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F166" s="10" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="G166" s="10" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="H166" s="11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C167" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D167" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E167" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F167" s="10" t="n">
+        <v>3.5864</v>
+      </c>
+      <c r="G167" s="10" t="n">
+        <v>146.99</v>
+      </c>
+      <c r="H167" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C168" s="16" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="D168" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E168" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
+        <v>3.1024</v>
+      </c>
+      <c r="G168" s="10" t="n">
+        <v>4023</v>
+      </c>
+      <c r="H168" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C169" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D169" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E169" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F169" s="10" t="n">
+        <v>2.1424</v>
+      </c>
+      <c r="G169" s="10" t="n">
+        <v>147.86</v>
+      </c>
+      <c r="H169" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="C170" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D170" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E170" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F170" s="10" t="n">
+        <v>5.0416</v>
+      </c>
+      <c r="G170" s="10" t="n">
+        <v>146.94</v>
+      </c>
+      <c r="H170" s="11" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="C171" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D171" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E171" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>0.1628</v>
+      </c>
+      <c r="G171" s="10" t="n">
+        <v>324.43</v>
+      </c>
+      <c r="H171" s="11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="C172" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D172" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E172" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G172" s="10" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="H172" s="11" t="n">
+        <v>303.02</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="C173" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D173" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E173" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F173" s="10" t="n">
+        <v>0.2488</v>
+      </c>
+      <c r="G173" s="10" t="n">
+        <v>317.24</v>
+      </c>
+      <c r="H173" s="11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C174" s="16" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="D174" s="16" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="E174" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F174" s="10" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="G174" s="10" t="n">
+        <v>311.66</v>
+      </c>
+      <c r="H174" s="11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C175" s="16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D175" s="16" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="E175" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F175" s="10" t="n">
+        <v>5.3326</v>
+      </c>
+      <c r="G175" s="10" t="n">
+        <v>138.25</v>
+      </c>
+      <c r="H175" s="11" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C176" s="16" t="inlineStr">
+        <is>
+          <t>SGLN</t>
+        </is>
+      </c>
+      <c r="D176" s="16" t="inlineStr">
+        <is>
+          <t>iShares Physical Gold</t>
+        </is>
+      </c>
+      <c r="E176" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F176" s="10" t="n">
+        <v>7.3165</v>
+      </c>
+      <c r="G176" s="10" t="n">
+        <v>3996</v>
+      </c>
+      <c r="H176" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:E176"/>
+  <mergeCells count="5">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AccountAnalysis.xlsx
+++ b/AccountAnalysis.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Account Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Advanced Account Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Account Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Account Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AI Analysis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Advanced Account Info'!$B$4:$E$176</definedName>
@@ -40,7 +41,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -81,6 +82,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00e6f3ff"/>
         <bgColor rgb="00e6f3ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+        <bgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -195,7 +202,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -273,7 +284,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>13</col>
@@ -281,20 +292,75 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6858000" cy="5486400"/>
+    <ext cx="6858000" cy="2743200"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6858000" cy="2743200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8572500" cy="9191625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -651,7 +717,7 @@
       </c>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="6" t="n">
-        <v>5069.32</v>
+        <v>5055.4</v>
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
@@ -721,7 +787,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>EGLNl</t>
+          <t>EGLN</t>
         </is>
       </c>
       <c r="G4" s="10" t="n">
@@ -731,10 +797,10 @@
         <v>49.27</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>56.85</v>
+        <v>57.52</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>120.1</v>
+        <v>130.72</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
@@ -745,16 +811,16 @@
         </is>
       </c>
       <c r="N4" s="10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>15.38</v>
+        <v>16.75</v>
       </c>
       <c r="P4" s="10" t="n">
         <v>1.1888</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>67.58</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="5">
@@ -769,23 +835,23 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PSNl</t>
+          <t>PSN</t>
         </is>
       </c>
       <c r="G5" s="10" t="n">
         <v>11.71</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>1080.61</v>
+        <v>10.81</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>1405</v>
+        <v>13.88</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>42.31</v>
+        <v>39.91</v>
       </c>
       <c r="K5" s="12" t="n">
-        <v>-2.3</v>
+        <v>-2.29</v>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
@@ -793,16 +859,16 @@
         </is>
       </c>
       <c r="N5" s="10" t="n">
-        <v>9.02</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="O5" s="10" t="n">
-        <v>1.39</v>
+        <v>2.55</v>
       </c>
       <c r="P5" s="10" t="n">
         <v>7.2343</v>
       </c>
       <c r="Q5" s="11" t="n">
-        <v>162.33</v>
+        <v>164.19</v>
       </c>
     </row>
     <row r="6">
@@ -817,20 +883,20 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>TWl</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="G6" s="10" t="n">
         <v>115.35</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>109.69</v>
+        <v>1.1</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>123.25</v>
+        <v>1.22</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>16.08</v>
+        <v>14.32</v>
       </c>
       <c r="K6" s="12" t="n">
         <v>-2.29</v>
@@ -841,16 +907,16 @@
         </is>
       </c>
       <c r="N6" s="13" t="n">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>-0.31</v>
+        <v>-0.68</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>3.4875</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <v>129.84</v>
+        <v>129.37</v>
       </c>
     </row>
     <row r="7">
@@ -865,23 +931,23 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>BLNDl</t>
+          <t>BLND</t>
         </is>
       </c>
       <c r="G7" s="10" t="n">
         <v>24.49</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>344.38</v>
+        <v>3.44</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>394.6</v>
+        <v>3.87</v>
       </c>
       <c r="J7" s="10" t="n">
-        <v>12.92</v>
+        <v>10.63</v>
       </c>
       <c r="K7" s="12" t="n">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
@@ -889,16 +955,16 @@
         </is>
       </c>
       <c r="N7" s="13" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>-5.45</v>
+        <v>-4.25</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>22.5351</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>45.64</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="8">
@@ -923,30 +989,30 @@
         <v>22.76</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>26.03</v>
+        <v>26.2</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>2.22</v>
+        <v>4.08</v>
       </c>
       <c r="K8" s="12" t="n">
-        <v>-18.2</v>
+        <v>-17.51</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t>FLXIm</t>
+          <t>WENTm</t>
         </is>
       </c>
       <c r="N8" s="13" t="n">
-        <v>13.22</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>-6.55</v>
+        <v>-6.89</v>
       </c>
       <c r="P8" s="13" t="n">
-        <v>6.0719</v>
+        <v>8.503399999999999</v>
       </c>
       <c r="Q8" s="12" t="n">
-        <v>237.87</v>
+        <v>146.21</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +1023,7 @@
       </c>
       <c r="C9" s="5" t="n"/>
       <c r="D9" s="12" t="n">
-        <v>-303.58</v>
+        <v>-317.5</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -971,69 +1037,69 @@
         <v>37.35</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>37.23</v>
+        <v>37.09</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>-0.41</v>
+        <v>-0.88</v>
       </c>
       <c r="K9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>WENTm</t>
+          <t>XLFSl</t>
         </is>
       </c>
       <c r="N9" s="13" t="n">
-        <v>8.15</v>
+        <v>3.09</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>-6.55</v>
+        <v>-7.18</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>8.503399999999999</v>
+        <v>0.1644</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <v>146.75</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>SVSl</t>
+          <t>EWATm</t>
         </is>
       </c>
       <c r="G10" s="13" t="n">
-        <v>8.59</v>
+        <v>22.54</v>
       </c>
       <c r="H10" s="13" t="n">
-        <v>981.78</v>
+        <v>2.14</v>
       </c>
       <c r="I10" s="13" t="n">
-        <v>980</v>
+        <v>2.05</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>-1.54</v>
+        <v>-2.05</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t>XLFSl</t>
+          <t>FLXIm</t>
         </is>
       </c>
       <c r="N10" s="13" t="n">
-        <v>3.11</v>
+        <v>13.1</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>-6.68</v>
+        <v>-7.37</v>
       </c>
       <c r="P10" s="13" t="n">
-        <v>0.1644</v>
+        <v>6.0719</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>55.9</v>
+        <v>235.8</v>
       </c>
     </row>
     <row r="11">
@@ -1056,10 +1122,10 @@
         <v>11.54</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>9.779999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>-2.44</v>
+        <v>-2.47</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>0</v>
@@ -1070,16 +1136,16 @@
         </is>
       </c>
       <c r="N11" s="13" t="n">
-        <v>5.06</v>
+        <v>5.04</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>-7.34</v>
+        <v>-7.66</v>
       </c>
       <c r="P11" s="13" t="n">
         <v>2.677</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>90.98999999999999</v>
+        <v>90.68000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1100,23 +1166,23 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>EWATm</t>
+          <t>SVS</t>
         </is>
       </c>
       <c r="G12" s="13" t="n">
-        <v>22.54</v>
+        <v>8.59</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>2.14</v>
+        <v>9.82</v>
       </c>
       <c r="I12" s="13" t="n">
-        <v>2.03</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>-2.63</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
+        <v>-4.24</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>-1.54</v>
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
@@ -1124,16 +1190,16 @@
         </is>
       </c>
       <c r="N12" s="13" t="n">
-        <v>4.9</v>
+        <v>4.87</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>-8.25</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>0.1433</v>
       </c>
       <c r="Q12" s="12" t="n">
-        <v>88.23</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="13">
@@ -1152,7 +1218,7 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>XLFSl</t>
+          <t>XLFS</t>
         </is>
       </c>
       <c r="G13" s="13" t="n">
@@ -1162,30 +1228,30 @@
         <v>376.18</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>394.38</v>
+        <v>390.38</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>-6.58</v>
+        <v>-6.32</v>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t>WTCHa</t>
+          <t>OD7Zd</t>
         </is>
       </c>
       <c r="N13" s="13" t="n">
-        <v>7.31</v>
+        <v>6.85</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>-8.69</v>
+        <v>-9.01</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>0.8258</v>
+        <v>9.3056</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>131.61</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="14">
@@ -1204,40 +1270,40 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>XMIDl</t>
+          <t>SVFC</t>
         </is>
       </c>
       <c r="G14" s="13" t="n">
-        <v>4.71</v>
+        <v>5.8</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>1125.5</v>
+        <v>26.3</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>1038</v>
+        <v>28.29</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>-5.99</v>
+        <v>-6.53</v>
       </c>
       <c r="K14" s="12" t="n">
-        <v>-1.15</v>
+        <v>-16.53</v>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t>OD7Zd</t>
+          <t>WTCHa</t>
         </is>
       </c>
       <c r="N14" s="13" t="n">
-        <v>6.87</v>
+        <v>7.26</v>
       </c>
       <c r="O14" s="13" t="n">
-        <v>-8.69</v>
+        <v>-9.32</v>
       </c>
       <c r="P14" s="13" t="n">
-        <v>9.3056</v>
+        <v>0.8258</v>
       </c>
       <c r="Q14" s="12" t="n">
-        <v>123.69</v>
+        <v>130.71</v>
       </c>
     </row>
     <row r="15">
@@ -1256,23 +1322,23 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PAVEm</t>
+          <t>XMID</t>
         </is>
       </c>
       <c r="G15" s="13" t="n">
-        <v>2.68</v>
+        <v>4.71</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>36.68</v>
+        <v>11.26</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>33.99</v>
+        <v>10.21</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>-7.21</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>0</v>
+        <v>-6.93</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>-1.15</v>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
@@ -1280,16 +1346,16 @@
         </is>
       </c>
       <c r="N15" s="13" t="n">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>-9.449999999999999</v>
+        <v>-10.93</v>
       </c>
       <c r="P15" s="13" t="n">
         <v>4.709</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>57.41</v>
+        <v>56.47</v>
       </c>
     </row>
     <row r="16">
@@ -1308,20 +1374,20 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>XLKSm</t>
+          <t>PAVEm</t>
         </is>
       </c>
       <c r="G16" s="13" t="n">
-        <v>0.14</v>
+        <v>2.68</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>670.91</v>
+        <v>36.68</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>615.61</v>
+        <v>33.88</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>-7.93</v>
+        <v>-7.52</v>
       </c>
       <c r="K16" s="6" t="n">
         <v>0</v>
@@ -1332,16 +1398,16 @@
         </is>
       </c>
       <c r="N16" s="13" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>-12.95</v>
+        <v>-11.45</v>
       </c>
       <c r="P16" s="13" t="n">
         <v>41.0425</v>
       </c>
       <c r="Q16" s="12" t="n">
-        <v>213.03</v>
+        <v>216.7</v>
       </c>
     </row>
     <row r="17">
@@ -1360,40 +1426,40 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>SVFC</t>
+          <t>XLKSm</t>
         </is>
       </c>
       <c r="G17" s="13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>670.91</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <v>612.04</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>-8.44</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>ZPDHd</t>
+        </is>
+      </c>
+      <c r="N17" s="13" t="n">
         <v>5.8</v>
       </c>
-      <c r="H17" s="13" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="I17" s="13" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="J17" s="13" t="n">
-        <v>-8.17</v>
-      </c>
-      <c r="K17" s="12" t="n">
-        <v>-17.17</v>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t>ZPDHd</t>
-        </is>
-      </c>
-      <c r="N17" s="13" t="n">
-        <v>5.77</v>
-      </c>
       <c r="O17" s="13" t="n">
-        <v>-13.07</v>
+        <v>-12.63</v>
       </c>
       <c r="P17" s="13" t="n">
         <v>2.8853</v>
       </c>
       <c r="Q17" s="12" t="n">
-        <v>103.9</v>
+        <v>104.43</v>
       </c>
     </row>
     <row r="18">
@@ -1422,13 +1488,13 @@
         <v>54.25</v>
       </c>
       <c r="I18" s="13" t="n">
-        <v>58.76</v>
+        <v>58.36</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>-9.26</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="K18" s="12" t="n">
-        <v>-27.33</v>
+        <v>-26.27</v>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
@@ -1439,13 +1505,13 @@
         <v>0.75</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>-15.23</v>
+        <v>-15.42</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>1.388</v>
       </c>
       <c r="Q18" s="12" t="n">
-        <v>13.58</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="19">
@@ -1464,40 +1530,40 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
+          <t>WENTm</t>
+        </is>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="I19" s="13" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="J19" s="13" t="n">
+        <v>-10.82</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="G19" s="13" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H19" s="13" t="n">
-        <v>239.73</v>
-      </c>
-      <c r="I19" s="13" t="n">
-        <v>207.79</v>
-      </c>
-      <c r="J19" s="13" t="n">
-        <v>-9.789999999999999</v>
-      </c>
-      <c r="K19" s="12" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="M19" s="4" t="inlineStr">
-        <is>
-          <t>EXP</t>
-        </is>
-      </c>
       <c r="N19" s="13" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>-23.17</v>
+        <v>-26.63</v>
       </c>
       <c r="P19" s="13" t="n">
         <v>0.1812</v>
       </c>
       <c r="Q19" s="12" t="n">
-        <v>32.46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1516,23 +1582,23 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>WENTm</t>
+          <t>EXP</t>
         </is>
       </c>
       <c r="G20" s="13" t="n">
-        <v>8.5</v>
+        <v>0.18</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>18.47</v>
+        <v>239.73</v>
       </c>
       <c r="I20" s="13" t="n">
-        <v>17.26</v>
+        <v>197.47</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>-10.28</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
+        <v>-11.25</v>
+      </c>
+      <c r="K20" s="12" t="n">
+        <v>-4.62</v>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
@@ -1540,16 +1606,16 @@
         </is>
       </c>
       <c r="N20" s="13" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>-43.4</v>
+        <v>-43.03</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>2.5784</v>
       </c>
       <c r="Q20" s="12" t="n">
-        <v>99.09999999999999</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1578,10 +1644,10 @@
         <v>14.56</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>13.29</v>
+        <v>13.24</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>-11.77</v>
+        <v>-12.21</v>
       </c>
       <c r="K21" s="6" t="n">
         <v>0</v>
@@ -1595,7 +1661,7 @@
       <c r="O21" s="16" t="n"/>
       <c r="P21" s="16" t="n"/>
       <c r="Q21" s="9" t="n">
-        <v>1799.91</v>
+        <v>1800.02</v>
       </c>
     </row>
     <row r="22">
@@ -1611,10 +1677,10 @@
         <v>174.54</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>159.36</v>
+        <v>158.28</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>-12.53</v>
+        <v>-13.43</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -1644,10 +1710,10 @@
         <v>41.42</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>36.01</v>
+        <v>36.2</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>-15.62</v>
+        <v>-15.09</v>
       </c>
       <c r="K23" s="6" t="n">
         <v>0</v>
@@ -1661,7 +1727,7 @@
       <c r="O23" s="16" t="n"/>
       <c r="P23" s="16" t="n"/>
       <c r="Q23" s="17" t="n">
-        <v>-203.72</v>
+        <v>-203.61</v>
       </c>
     </row>
     <row r="24">
@@ -1677,10 +1743,10 @@
         <v>41.92</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>39.17</v>
+        <v>38.84</v>
       </c>
       <c r="J24" s="13" t="n">
-        <v>-16.68</v>
+        <v>-18.75</v>
       </c>
       <c r="K24" s="6" t="n">
         <v>0</v>
@@ -1694,7 +1760,7 @@
       <c r="O24" s="16" t="n"/>
       <c r="P24" s="16" t="n"/>
       <c r="Q24" s="17" t="n">
-        <v>-10.17</v>
+        <v>-10.16</v>
       </c>
     </row>
     <row r="25">
@@ -1710,10 +1776,10 @@
         <v>5.96</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>-31.69</v>
+        <v>-28.02</v>
       </c>
       <c r="K25" s="6" t="n">
         <v>0</v>
@@ -1722,7 +1788,7 @@
     <row r="26">
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>VUAAl</t>
+          <t>VUAA</t>
         </is>
       </c>
       <c r="G26" s="13" t="n">
@@ -1732,13 +1798,13 @@
         <v>112.48</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>115.24</v>
+        <v>114.92</v>
       </c>
       <c r="J26" s="13" t="n">
-        <v>-67.11</v>
+        <v>-65.68000000000001</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>-83.41</v>
+        <v>-80.16</v>
       </c>
     </row>
     <row r="27">
@@ -1754,10 +1820,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>38.44</v>
+        <v>38.69</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>-75.98</v>
+        <v>-75.34</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>0</v>
@@ -1776,13 +1842,13 @@
         <v>141</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>125.81</v>
+        <v>122.47</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>-196</v>
+        <v>-213.49</v>
       </c>
       <c r="K28" s="12" t="n">
-        <v>-99.09999999999999</v>
+        <v>-94.70999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2054,7 @@
         <v>0.265</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>397</v>
+        <v>3.97</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>1.25</v>
@@ -2032,7 +2098,7 @@
         <v>1.3449</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>117.05</v>
+        <v>1.1705</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>1.87</v>
@@ -2076,7 +2142,7 @@
         <v>0.109</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>965</v>
+        <v>9.65</v>
       </c>
       <c r="H8" s="11" t="n">
         <v>1.25</v>
@@ -2107,7 +2173,7 @@
         <v>0.1177</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>1338</v>
+        <v>13.38</v>
       </c>
       <c r="H9" s="11" t="n">
         <v>1.87</v>
@@ -2145,7 +2211,7 @@
         <v>0.3035</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>939.5</v>
+        <v>9.395</v>
       </c>
       <c r="H10" s="11" t="n">
         <v>3.46</v>
@@ -2196,7 +2262,7 @@
       <c r="H11" s="11" t="n">
         <v>25.69</v>
       </c>
-      <c r="J11" s="15" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>Currency Conversion</t>
         </is>
@@ -2240,7 +2306,7 @@
       <c r="H12" s="11" t="n">
         <v>13.85</v>
       </c>
-      <c r="J12" s="15" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>Deposit Fee</t>
         </is>
@@ -2284,7 +2350,7 @@
       <c r="H13" s="11" t="n">
         <v>13.83</v>
       </c>
-      <c r="J13" s="15" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>Stamp Duty Tax</t>
         </is>
@@ -2328,7 +2394,7 @@
       <c r="H14" s="11" t="n">
         <v>148.82</v>
       </c>
-      <c r="J14" s="15" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>Withholding Tax</t>
         </is>
@@ -2372,7 +2438,7 @@
       <c r="H15" s="12" t="n">
         <v>205.72</v>
       </c>
-      <c r="J15" s="30" t="inlineStr">
+      <c r="J15" s="7" t="inlineStr">
         <is>
           <t>TOTAL FEES</t>
         </is>
@@ -2447,6 +2513,13 @@
       <c r="H17" s="12" t="n">
         <v>875.05</v>
       </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>Win/Loss Statistics</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="inlineStr">
@@ -2478,6 +2551,21 @@
       <c r="H18" s="11" t="n">
         <v>290.41</v>
       </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="inlineStr">
@@ -2509,6 +2597,19 @@
       <c r="H19" s="11" t="n">
         <v>1000.06</v>
       </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="K19" s="30" t="n">
+        <v>19</v>
+      </c>
+      <c r="L19" s="31" t="inlineStr">
+        <is>
+          <t>trades</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="inlineStr">
@@ -2540,6 +2641,19 @@
       <c r="H20" s="11" t="n">
         <v>60</v>
       </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Winning Trades</t>
+        </is>
+      </c>
+      <c r="K20" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" s="31" t="inlineStr">
+        <is>
+          <t>trades</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="4" t="inlineStr">
@@ -2571,6 +2685,19 @@
       <c r="H21" s="11" t="n">
         <v>20</v>
       </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>Win Rate</t>
+        </is>
+      </c>
+      <c r="K21" s="13" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="L21" s="12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="4" t="inlineStr">
@@ -2602,6 +2729,19 @@
       <c r="H22" s="11" t="n">
         <v>20</v>
       </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Average P/L per Trade</t>
+        </is>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="L22" s="11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="4" t="inlineStr">
@@ -3434,7 +3574,7 @@
         <v>3.5838</v>
       </c>
       <c r="G49" s="10" t="n">
-        <v>1140</v>
+        <v>11.4</v>
       </c>
       <c r="H49" s="11" t="n">
         <v>48.82</v>
@@ -3465,7 +3605,7 @@
         <v>7.8054</v>
       </c>
       <c r="G50" s="10" t="n">
-        <v>982</v>
+        <v>9.82</v>
       </c>
       <c r="H50" s="11" t="n">
         <v>92.04000000000001</v>
@@ -3496,7 +3636,7 @@
         <v>0.6756</v>
       </c>
       <c r="G51" s="10" t="n">
-        <v>982</v>
+        <v>9.82</v>
       </c>
       <c r="H51" s="11" t="n">
         <v>7.96</v>
@@ -3589,7 +3729,7 @@
         <v>114.0035</v>
       </c>
       <c r="G54" s="10" t="n">
-        <v>109.6</v>
+        <v>1.096</v>
       </c>
       <c r="H54" s="11" t="n">
         <v>150</v>
@@ -3620,7 +3760,7 @@
         <v>9.2392</v>
       </c>
       <c r="G55" s="10" t="n">
-        <v>1078</v>
+        <v>10.78</v>
       </c>
       <c r="H55" s="11" t="n">
         <v>119.56</v>
@@ -3651,7 +3791,7 @@
         <v>2.3517</v>
       </c>
       <c r="G56" s="10" t="n">
-        <v>1078</v>
+        <v>10.78</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>30.44</v>
@@ -3682,7 +3822,7 @@
         <v>24.2288</v>
       </c>
       <c r="G57" s="10" t="n">
-        <v>343.8</v>
+        <v>3.438</v>
       </c>
       <c r="H57" s="11" t="n">
         <v>100</v>
@@ -4798,7 +4938,7 @@
         <v>0.2709</v>
       </c>
       <c r="G93" s="10" t="n">
-        <v>1135</v>
+        <v>11.35</v>
       </c>
       <c r="H93" s="11" t="n">
         <v>3.72</v>
@@ -5325,7 +5465,7 @@
         <v>0.2755</v>
       </c>
       <c r="G110" s="10" t="n">
-        <v>1133</v>
+        <v>11.33</v>
       </c>
       <c r="H110" s="11" t="n">
         <v>3.76</v>
@@ -6100,7 +6240,7 @@
         <v>0.2753</v>
       </c>
       <c r="G135" s="10" t="n">
-        <v>1125</v>
+        <v>11.25</v>
       </c>
       <c r="H135" s="11" t="n">
         <v>3.75</v>
@@ -6751,7 +6891,7 @@
         <v>9.559699999999999</v>
       </c>
       <c r="G156" s="13" t="n">
-        <v>4074</v>
+        <v>40.74</v>
       </c>
       <c r="H156" s="12" t="n">
         <v>467.21</v>
@@ -6813,7 +6953,7 @@
         <v>62</v>
       </c>
       <c r="G158" s="13" t="n">
-        <v>4077</v>
+        <v>40.77</v>
       </c>
       <c r="H158" s="12" t="n">
         <v>3033.92</v>
@@ -6844,7 +6984,7 @@
         <v>61.1408</v>
       </c>
       <c r="G159" s="10" t="n">
-        <v>4075</v>
+        <v>40.75</v>
       </c>
       <c r="H159" s="11" t="n">
         <v>3000.08</v>
@@ -7123,7 +7263,7 @@
         <v>3.1024</v>
       </c>
       <c r="G168" s="10" t="n">
-        <v>4023</v>
+        <v>40.23</v>
       </c>
       <c r="H168" s="11" t="n">
         <v>150</v>
@@ -7371,7 +7511,7 @@
         <v>7.3165</v>
       </c>
       <c r="G176" s="10" t="n">
-        <v>3996</v>
+        <v>39.96</v>
       </c>
       <c r="H176" s="11" t="n">
         <v>350</v>
@@ -7379,14 +7519,62 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:E176"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="32" t="inlineStr">
+        <is>
+          <t>AI Portfolio Analysis &amp; Recommendations</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="n"/>
+      <c r="D2" s="23" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="23" t="n"/>
+      <c r="G2" s="23" t="n"/>
+      <c r="H2" s="23" t="n"/>
+      <c r="I2" s="23" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>